--- a/TestData/Lead_Creation.xlsx
+++ b/TestData/Lead_Creation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>UserName</t>
   </si>
@@ -28,16 +28,58 @@
     <t>CPAPsw</t>
   </si>
   <si>
+    <t>DocNum</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>SelectLang</t>
+  </si>
+  <si>
     <t>AbhinaySumaSO</t>
   </si>
   <si>
+    <t>988203</t>
+  </si>
+  <si>
+    <t>AbhinaySumaCPA</t>
+  </si>
+  <si>
+    <t>sumasoft123</t>
+  </si>
+  <si>
     <t>123456</t>
   </si>
   <si>
-    <t>AbhinaySumaCPA</t>
-  </si>
-  <si>
-    <t>sumasoft123</t>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>20-11-1980</t>
+  </si>
+  <si>
+    <t>9111111111</t>
+  </si>
+  <si>
+    <t>5-Kannada</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -48,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,19 +105,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -83,33 +141,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,6 +188,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -163,14 +219,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,7 +227,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,14 +235,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,187 +257,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,11 +453,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,16 +540,21 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -521,136 +566,133 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -976,21 +1018,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="16.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="17.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="11.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="13.2857142857143" customWidth="1"/>
+    <col min="8" max="10" width="12.4285714285714" customWidth="1"/>
+    <col min="11" max="11" width="11.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1003,24 +1049,66 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
